--- a/latex/secciones/casos_de_uso_fomix.xlsx
+++ b/latex/secciones/casos_de_uso_fomix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -46,7 +46,6 @@
     <sheet name="Borrar un ordenamiento" sheetId="36" state="visible" r:id="rId37"/>
     <sheet name="Modificar datos generales de un" sheetId="37" state="visible" r:id="rId38"/>
     <sheet name="Consultar historial de consultas" sheetId="38" state="visible" r:id="rId39"/>
-    <sheet name="Generar PDF de consulta" sheetId="39" state="visible" r:id="rId40"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="225">
   <si>
     <t xml:space="preserve">nombre</t>
   </si>
@@ -2889,6 +2888,68 @@
 4. El ususario selecciona el ordenamiento
 5. El usuario modifica alguno de los datos generales del ordenamiento
 6. El usuario guarda los cambios. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+El usuario consulta el historial de consultas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Del proceso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Los usuarios deben estar registrados en el sistema
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Del sistema
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ya se han realizado consultas al sistema y el usuario tiene permisos apropiados para visualizarlas</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. El usuario se autentifica (CU33).
+2. El usuario selecciona el ordenamiento deseado (POETY,POETCY, o POEL)
+3. El usuario se dirige al apartado de “Consultar historial de consultas”.                            
+4. El sistema despliega una lista de consultas por orden Cronológico.
+5. El usuario selecciona una consulta.
+6. El sistema genera el archivo PDF de dicha consulta. (A2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A1) Las credenciales proporcionadas son incorrectas. Se informa al usuario y se le solicitan nuevamente sus credenciales.
+(A2) El usuario solicita la descarga del PDF
 </t>
   </si>
 </sst>
@@ -3212,18 +3273,18 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="87.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3725,7 +3786,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3740,17 +3801,17 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4068,7 +4129,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4083,17 +4144,17 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4411,7 +4472,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4426,17 +4487,17 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4754,7 +4815,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4769,17 +4830,17 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5095,7 +5156,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5110,17 +5171,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5376,7 +5437,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5391,17 +5452,17 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5717,7 +5778,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5732,17 +5793,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5996,7 +6057,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6011,17 +6072,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6277,7 +6338,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6292,17 +6353,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6558,7 +6619,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6573,17 +6634,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6839,7 +6900,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6854,17 +6915,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7120,7 +7181,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7135,17 +7196,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7401,7 +7462,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7416,17 +7477,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7682,7 +7743,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7697,17 +7758,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7963,7 +8024,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7978,17 +8039,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8244,7 +8305,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8259,17 +8320,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8525,7 +8586,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8540,17 +8601,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8806,7 +8867,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8821,17 +8882,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9087,7 +9148,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9102,17 +9163,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9368,7 +9429,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9383,17 +9444,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9649,7 +9710,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9664,17 +9725,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9930,7 +9991,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9945,17 +10006,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10209,7 +10270,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10224,17 +10285,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10490,7 +10551,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10505,17 +10566,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10771,7 +10832,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10786,17 +10847,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11052,7 +11113,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -11067,17 +11128,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11331,7 +11392,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -11346,17 +11407,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11610,7 +11671,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -11625,17 +11686,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11889,7 +11950,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -11904,17 +11965,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12168,7 +12229,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -12183,17 +12244,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12447,7 +12508,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -12462,15 +12523,18 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="13" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="35.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="35.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12537,7 +12601,7 @@
         <v>56</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -12559,7 +12623,7 @@
         <v>58</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -12581,7 +12645,7 @@
         <v>60</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -12603,7 +12667,7 @@
         <v>62</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -12724,285 +12788,10 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="10" t="n">
-        <f aca="false">VLOOKUP(B1,Sheet1!A2:B52,2,0)</f>
-        <v>37</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:D7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:D13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:D16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:D19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:D22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:D25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:D28"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B5:D7">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2" type="list">
-      <formula1>Sheet1!$H$2:$H$4</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -13014,17 +12803,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13280,7 +13069,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13295,17 +13084,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13561,7 +13350,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13576,17 +13365,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13842,7 +13631,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13857,17 +13646,17 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14123,7 +13912,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14138,17 +13927,17 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14464,7 +14253,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14479,17 +14268,17 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14807,7 +14596,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
